--- a/xlsx/country_comparison/poverty_field_positive.xlsx
+++ b/xlsx/country_comparison/poverty_field_positive.xlsx
@@ -392,7 +392,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.263520161686997</v>
+        <v>0.263520161511464</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.190097114679394</v>
+        <v>0.190097114551288</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.162853511156027</v>
+        <v>0.16285351105111</v>
       </c>
     </row>
     <row r="5">
@@ -416,7 +416,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.125576659710937</v>
+        <v>0.125576659627585</v>
       </c>
     </row>
     <row r="6">
@@ -424,7 +424,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0837157402223695</v>
+        <v>0.0837157405011479</v>
       </c>
     </row>
     <row r="7">
@@ -432,7 +432,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0798873807059094</v>
+        <v>0.0798873809828577</v>
       </c>
     </row>
     <row r="8">
@@ -440,7 +440,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0601377910939894</v>
+        <v>0.0601377910542539</v>
       </c>
     </row>
     <row r="9">
@@ -448,7 +448,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0556074476513522</v>
+        <v>0.0556074476139793</v>
       </c>
     </row>
     <row r="10">
@@ -456,7 +456,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0440527338363556</v>
+        <v>0.0440527338069581</v>
       </c>
     </row>
     <row r="11">
@@ -464,7 +464,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0305451433529524</v>
+        <v>0.0305451433326414</v>
       </c>
     </row>
   </sheetData>
